--- a/Week7_WebScrapping/D4/DailyChallenge/Dino File-filtered.xlsx
+++ b/Week7_WebScrapping/D4/DailyChallenge/Dino File-filtered.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/Desktop/DI-Bootcamp/Week7_WebScrapping/D4/DailyChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C659F-DD5E-554E-9A6A-7AB12DCB01A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E10D39-9A05-5A42-AA06-68D999095B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="760" windowWidth="30100" windowHeight="19140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="760" windowWidth="31080" windowHeight="20000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,15 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="43" r:id="rId7"/>
-    <pivotCache cacheId="52" r:id="rId8"/>
-    <pivotCache cacheId="53" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -377,9 +377,6 @@
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>(All)</t>
   </si>
   <si>
     <t>Sum of Height  (m)</t>
@@ -730,7 +727,11 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Period" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="3">
+        <s v="Cretaceous"/>
+        <s v="Jurassic"/>
+        <s v="Triassic"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Diet" numFmtId="0">
       <sharedItems/>
@@ -1506,7 +1507,7 @@
     <x v="0"/>
     <s v="Alberta lizard"/>
     <s v="al-BERT-oh-saw-russ"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="carnivore"/>
     <n v="9"/>
     <n v="3.5"/>
@@ -1519,7 +1520,7 @@
     <x v="1"/>
     <s v="different reptile"/>
     <s v="AL-oh-saw-russ"/>
-    <s v="Jurassic"/>
+    <x v="1"/>
     <s v="carnivore"/>
     <n v="12"/>
     <n v="5"/>
@@ -1532,7 +1533,7 @@
     <x v="2"/>
     <s v="heavy claw"/>
     <s v="bah-ree-ON-icks"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="carnivore"/>
     <n v="10"/>
     <n v="4"/>
@@ -1545,7 +1546,7 @@
     <x v="3"/>
     <s v="hollow form"/>
     <s v="see-LOH-fiss-iss"/>
-    <s v="Triassic"/>
+    <x v="2"/>
     <s v="carnivore"/>
     <n v="3"/>
     <n v="2"/>
@@ -1558,7 +1559,7 @@
     <x v="4"/>
     <s v="pretty jaw"/>
     <s v="comp-so-g-NATH-us"/>
-    <s v="Jurassic"/>
+    <x v="1"/>
     <s v="carnivore"/>
     <n v="1"/>
     <n v="0.7"/>
@@ -1571,7 +1572,7 @@
     <x v="5"/>
     <s v="terrible claw"/>
     <s v="die-NON-i-kuss"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="carnivore"/>
     <n v="3"/>
     <n v="1.5"/>
@@ -1584,7 +1585,7 @@
     <x v="6"/>
     <s v="running lizard"/>
     <s v="DROM-ee-oh-saw-russ"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="carnivore"/>
     <n v="1.8"/>
     <n v="0.8"/>
@@ -1597,7 +1598,7 @@
     <x v="7"/>
     <s v="fowl mimic"/>
     <s v="gal-i-ME-muss"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="omnivore"/>
     <n v="5.6"/>
     <n v="3"/>
@@ -1610,7 +1611,7 @@
     <x v="8"/>
     <s v="high-ridge tooth"/>
     <s v="hip-sill-OH-fo-don"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="herbivore"/>
     <n v="2"/>
     <n v="0.8"/>
@@ -1623,7 +1624,7 @@
     <x v="9"/>
     <s v="mountain runner"/>
     <s v="or-odd-rom-AY-us"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="herbivore"/>
     <n v="2.5"/>
     <n v="1"/>
@@ -1636,7 +1637,7 @@
     <x v="10"/>
     <s v="egg thief"/>
     <s v="o-vee-RAP-tor"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="omnivore"/>
     <n v="1.8"/>
     <n v="0.8"/>
@@ -1649,7 +1650,7 @@
     <x v="11"/>
     <s v="thick-headed lizard"/>
     <s v="pack-i-KEF-al-oh-saw-russ"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="herbivore"/>
     <n v="8"/>
     <n v="6"/>
@@ -1662,7 +1663,7 @@
     <x v="12"/>
     <s v="wounding tooth"/>
     <s v="TRO-o-don"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="carnivore"/>
     <n v="2"/>
     <n v="1.3"/>
@@ -1675,7 +1676,7 @@
     <x v="13"/>
     <s v="tyrant lizard"/>
     <s v="tie-RAN-oh-saw-russ"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="carnivore"/>
     <n v="12"/>
     <n v="5.6"/>
@@ -1688,7 +1689,7 @@
     <x v="14"/>
     <s v="Edmonton lizard"/>
     <s v="ed-MON-toe-saw-russ"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="herbivore"/>
     <n v="13"/>
     <n v="3.5"/>
@@ -1701,7 +1702,7 @@
     <x v="15"/>
     <s v="iguana tooth"/>
     <s v="ig-WAN-oh-don"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="herbivore"/>
     <n v="10"/>
     <n v="5"/>
@@ -1714,7 +1715,7 @@
     <x v="16"/>
     <s v="good mother lizard"/>
     <s v="my-ah-SAW-rah"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="herbivore"/>
     <n v="9"/>
     <n v="2.2999999999999998"/>
@@ -1727,7 +1728,7 @@
     <x v="17"/>
     <s v="massive vertebrae"/>
     <s v="mass-oh-SPON-di-luss"/>
-    <s v="Triassic"/>
+    <x v="2"/>
     <s v="herbivore"/>
     <n v="4"/>
     <n v="1"/>
@@ -1740,7 +1741,7 @@
     <x v="18"/>
     <s v="like 'Saurolophus' - the ridged lizard"/>
     <s v="pa-ra-saw-ROL-off-us"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="herbivore"/>
     <n v="10"/>
     <n v="5.2"/>
@@ -1753,7 +1754,7 @@
     <x v="19"/>
     <s v="parrot lizard"/>
     <s v="SIT-a-co-saw-russ"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="herbivore"/>
     <n v="2.5"/>
     <n v="1"/>
@@ -1766,7 +1767,7 @@
     <x v="20"/>
     <s v="chambered lizard"/>
     <s v="KAM-ar-a-saw-russ"/>
-    <s v="Jurassic"/>
+    <x v="1"/>
     <s v="herbivore"/>
     <n v="18"/>
     <n v="9"/>
@@ -1779,7 +1780,7 @@
     <x v="21"/>
     <s v="horned lizard"/>
     <s v="CEN-tro-saw-russ"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="herbivore"/>
     <n v="6"/>
     <n v="2"/>
@@ -1792,7 +1793,7 @@
     <x v="22"/>
     <s v="ravine reptile"/>
     <s v="KAZ-mo-saw-russ"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="herbivore"/>
     <n v="5.2"/>
     <n v="3.6"/>
@@ -1805,7 +1806,7 @@
     <x v="23"/>
     <s v="double beam"/>
     <s v="dip-lod-OH-kuss"/>
-    <s v="Jurassic"/>
+    <x v="1"/>
     <s v="herbivore"/>
     <n v="26"/>
     <n v="8"/>
@@ -1818,7 +1819,7 @@
     <x v="24"/>
     <s v="well-armoured head"/>
     <s v="you-OH-plo-kef-ah-luss"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="herbivore"/>
     <n v="6"/>
     <n v="1.8"/>
@@ -1831,7 +1832,7 @@
     <x v="25"/>
     <s v="sinew lizard"/>
     <s v="ten-ON-toe-saw-russ"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="herbivore"/>
     <n v="7.3"/>
     <n v="2.5"/>
@@ -1844,7 +1845,7 @@
     <x v="26"/>
     <s v="three-horned face"/>
     <s v="tri-SER-a-tops"/>
-    <s v="Cretaceous"/>
+    <x v="0"/>
     <s v="herbivore"/>
     <n v="9"/>
     <n v="3"/>
@@ -1857,7 +1858,7 @@
     <x v="27"/>
     <s v="Tuijiang lizard"/>
     <s v="too-WANG-oh-saw-russ"/>
-    <s v="Jurassic"/>
+    <x v="1"/>
     <s v="herbivore"/>
     <n v="7"/>
     <n v="2"/>
@@ -1870,7 +1871,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1496B349-57D4-714C-9B41-2E42DD296CDC}" name="PivotTable6" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1496B349-57D4-714C-9B41-2E42DD296CDC}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -2032,8 +2033,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A191247-9F2D-1A47-ADDD-08832C931C1B}" name="PivotTable7" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A191247-9F2D-1A47-ADDD-08832C931C1B}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
       <items count="29">
@@ -2070,7 +2071,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item h="1" x="0"/>
         <item x="1"/>
@@ -2079,26 +2080,26 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" dataField="1" showAll="0">
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
       <items count="19">
         <item x="4"/>
         <item x="5"/>
         <item x="7"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="15"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="6"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="16"/>
+        <item h="1" x="9"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="10"/>
+        <item h="1" x="12"/>
+        <item h="1" x="15"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2109,27 +2110,15 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="2">
+    <field x="0"/>
     <field x="3"/>
-    <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="3">
     <i>
-      <x v="1"/>
+      <x v="7"/>
     </i>
     <i r="1">
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
     </i>
     <i t="grand">
       <x/>
@@ -2166,8 +2155,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B9D7FE5-2D22-A64B-8BD5-BC27F0517F3A}" name="PivotTable8" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B9D7FE5-2D22-A64B-8BD5-BC27F0517F3A}" name="PivotTable8" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
       <items count="29">
@@ -2204,7 +2193,14 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2216,18 +2212,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="29">
+  <rowItems count="22">
     <i>
       <x/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -2236,16 +2226,7 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
       <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
     </i>
     <i>
       <x v="10"/>
@@ -2267,9 +2248,6 @@
     </i>
     <i>
       <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
     </i>
     <i>
       <x v="18"/>
@@ -2296,9 +2274,6 @@
       <x v="25"/>
     </i>
     <i>
-      <x v="26"/>
-    </i>
-    <i>
       <x v="27"/>
     </i>
     <i t="grand">
@@ -2308,6 +2283,9 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2612,7 +2590,7 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -2631,7 +2609,7 @@
     <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3684,7 +3662,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3701,7 +3679,7 @@
         <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3709,14 +3687,14 @@
         <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4">
         <v>2</v>
       </c>
     </row>
@@ -3724,7 +3702,7 @@
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
@@ -3732,7 +3710,7 @@
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6">
         <v>1.5</v>
       </c>
     </row>
@@ -3740,7 +3718,7 @@
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7">
         <v>1.5</v>
       </c>
     </row>
@@ -3748,7 +3726,7 @@
       <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8">
         <v>0.8</v>
       </c>
     </row>
@@ -3756,7 +3734,7 @@
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9">
         <v>0.8</v>
       </c>
     </row>
@@ -3764,7 +3742,7 @@
       <c r="A10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10">
         <v>1.8</v>
       </c>
     </row>
@@ -3772,7 +3750,7 @@
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11">
         <v>1.8</v>
       </c>
     </row>
@@ -3780,7 +3758,7 @@
       <c r="A12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12">
         <v>0.8</v>
       </c>
     </row>
@@ -3788,7 +3766,7 @@
       <c r="A13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13">
         <v>0.8</v>
       </c>
     </row>
@@ -3796,7 +3774,7 @@
       <c r="A14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
@@ -3804,7 +3782,7 @@
       <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15">
         <v>1</v>
       </c>
     </row>
@@ -3812,7 +3790,7 @@
       <c r="A16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16">
         <v>0.8</v>
       </c>
     </row>
@@ -3820,7 +3798,7 @@
       <c r="A17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17">
         <v>0.8</v>
       </c>
     </row>
@@ -3828,7 +3806,7 @@
       <c r="A18" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
@@ -3836,7 +3814,7 @@
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
@@ -3844,7 +3822,7 @@
       <c r="A20" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20">
         <v>1.3</v>
       </c>
     </row>
@@ -3852,7 +3830,7 @@
       <c r="A21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21">
         <v>1.3</v>
       </c>
     </row>
@@ -3860,7 +3838,7 @@
       <c r="A22" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22">
         <v>11</v>
       </c>
     </row>
@@ -3877,7 +3855,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4928,111 +4906,71 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF1D6EE-0455-6041-BAB4-9464C2113B21}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
         <v>117</v>
       </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="11">
-        <v>64</v>
-      </c>
-      <c r="C4" s="11">
-        <v>12.8</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
+      <c r="A5" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C5" s="11">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="11">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C6" s="11">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>35</v>
+      <c r="A7" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="11">
-        <v>26</v>
-      </c>
-      <c r="C8" s="11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="11">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="11">
-        <v>64</v>
-      </c>
-      <c r="C10" s="11">
-        <v>12.8</v>
       </c>
     </row>
   </sheetData>
@@ -5065,7 +5003,7 @@
     <col min="10" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6100,164 +6038,138 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2E2875-2B50-784B-BD35-F840C7EDA787}">
-  <dimension ref="A3:A32"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
         <v>113</v>
       </c>
     </row>
